--- a/doc/logElecciones.xlsx
+++ b/doc/logElecciones.xlsx
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$197</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -76,9 +79,6 @@
   </si>
   <si>
     <t>APODACA</t>
-  </si>
-  <si>
-    <t>GRAL. ESCOBEDO</t>
   </si>
   <si>
     <t>SAN NICOLAS DE LOS GARZA</t>
@@ -177,15 +177,6 @@
     <t>HUMANISTA</t>
   </si>
   <si>
-    <t>ENC. SOC</t>
-  </si>
-  <si>
-    <t>MOV. CIU.</t>
-  </si>
-  <si>
-    <t>INDEP.</t>
-  </si>
-  <si>
     <t>distrito 1</t>
   </si>
   <si>
@@ -228,10 +219,22 @@
     <t>Grado Promedio Escolaridad</t>
   </si>
   <si>
-    <t>Poblacion con Religion</t>
+    <t>Sin Religion</t>
   </si>
   <si>
-    <t>Sin Religion</t>
+    <t>MOV, CIU,</t>
+  </si>
+  <si>
+    <t>ENC, SOC</t>
+  </si>
+  <si>
+    <t>INDEP,</t>
+  </si>
+  <si>
+    <t>GRAL, ESCOBEDO</t>
+  </si>
+  <si>
+    <t>Poblacion con religion</t>
   </si>
 </sst>
 </file>
@@ -691,28 +694,25 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,23 +730,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1437,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,31 +1495,31 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -1528,25 +1531,25 @@
         <v>10</v>
       </c>
       <c r="T1" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="49" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -1719,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -1800,7 +1803,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -1881,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -1962,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -2043,7 +2046,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>11</v>
@@ -2124,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -2205,7 +2208,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>11</v>
@@ -2286,7 +2289,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>11</v>
@@ -2367,7 +2370,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>11</v>
@@ -2448,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
@@ -2529,7 +2532,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
@@ -2610,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>11</v>
@@ -2691,7 +2694,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -2775,7 +2778,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
@@ -2856,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
@@ -2937,7 +2940,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -3018,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>11</v>
@@ -3099,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
@@ -3180,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -3261,7 +3264,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -3345,7 +3348,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -3426,7 +3429,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -3507,7 +3510,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -3588,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -3669,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -3750,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -3834,7 +3837,7 @@
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1">
         <v>78961</v>
@@ -3916,7 +3919,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1">
         <v>41936</v>
@@ -3995,10 +3998,10 @@
         <v>12</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1">
         <v>71107</v>
@@ -4080,10 +4083,10 @@
         <v>12</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1">
         <v>91581</v>
@@ -4163,10 +4166,10 @@
         <v>12</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1">
         <v>27049</v>
@@ -4245,10 +4248,10 @@
         <v>12</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1">
         <v>71423</v>
@@ -4327,10 +4330,10 @@
         <v>12</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1">
         <v>59721</v>
@@ -4409,10 +4412,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1">
         <v>66183</v>
@@ -4490,10 +4493,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1">
         <v>44517</v>
@@ -4571,10 +4574,10 @@
         <v>12</v>
       </c>
       <c r="C39" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1">
         <v>69155</v>
@@ -4652,10 +4655,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1">
         <v>56399</v>
@@ -4733,10 +4736,10 @@
         <v>12</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1">
         <v>50342</v>
@@ -4814,10 +4817,10 @@
         <v>13</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1">
         <v>54026</v>
@@ -4895,10 +4898,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1">
         <v>60426</v>
@@ -4976,10 +4979,10 @@
         <v>13</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1">
         <v>59399</v>
@@ -5057,10 +5060,10 @@
         <v>13</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1">
         <v>41472</v>
@@ -5138,10 +5141,10 @@
         <v>13</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1">
         <v>56179</v>
@@ -5219,10 +5222,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1">
         <v>57109</v>
@@ -5300,10 +5303,10 @@
         <v>13</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1">
         <v>40404</v>
@@ -5381,10 +5384,10 @@
         <v>14</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1">
         <v>33011</v>
@@ -5462,10 +5465,10 @@
         <v>14</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1">
         <v>28388</v>
@@ -5543,10 +5546,10 @@
         <v>14</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1">
         <v>58840</v>
@@ -5624,10 +5627,10 @@
         <v>14</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="1">
         <v>29688</v>
@@ -5705,10 +5708,10 @@
         <v>14</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E53" s="1">
         <v>56803</v>
@@ -5786,10 +5789,10 @@
         <v>14</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" s="1">
         <v>83080</v>
@@ -5867,10 +5870,10 @@
         <v>14</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1">
         <v>35150</v>
@@ -5948,10 +5951,10 @@
         <v>14</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1">
         <v>59408</v>
@@ -6029,10 +6032,10 @@
         <v>14</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1">
         <v>26281</v>
@@ -6113,7 +6116,7 @@
         <v>15</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="1">
         <v>80383</v>
@@ -6194,7 +6197,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E59" s="1">
         <v>40536</v>
@@ -6272,10 +6275,10 @@
         <v>12</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E60" s="1">
         <v>72818</v>
@@ -6353,10 +6356,10 @@
         <v>12</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1">
         <v>91261</v>
@@ -6434,10 +6437,10 @@
         <v>12</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E62" s="1">
         <v>27297</v>
@@ -6515,10 +6518,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E63" s="1">
         <v>64651</v>
@@ -6596,10 +6599,10 @@
         <v>12</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E64" s="1">
         <v>58323</v>
@@ -6677,10 +6680,10 @@
         <v>12</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E65" s="1">
         <v>66644</v>
@@ -6758,10 +6761,10 @@
         <v>12</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1">
         <v>44371</v>
@@ -6839,10 +6842,10 @@
         <v>12</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="1">
         <v>66130</v>
@@ -6920,10 +6923,10 @@
         <v>12</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="1">
         <v>53919</v>
@@ -7001,10 +7004,10 @@
         <v>12</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="1">
         <v>50636</v>
@@ -7082,10 +7085,10 @@
         <v>13</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="1">
         <v>53665</v>
@@ -7163,10 +7166,10 @@
         <v>13</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" s="1">
         <v>59383</v>
@@ -7244,10 +7247,10 @@
         <v>13</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" s="1">
         <v>69941</v>
@@ -7325,10 +7328,10 @@
         <v>13</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="1">
         <v>37647</v>
@@ -7406,10 +7409,10 @@
         <v>13</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E74" s="1">
         <v>58070</v>
@@ -7487,10 +7490,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E75" s="1">
         <v>66404</v>
@@ -7568,10 +7571,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E76" s="1">
         <v>34751</v>
@@ -7649,10 +7652,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E77" s="1">
         <v>33929</v>
@@ -7730,10 +7733,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E78" s="1">
         <v>27606</v>
@@ -7811,10 +7814,10 @@
         <v>14</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E79" s="1">
         <v>63309</v>
@@ -7892,10 +7895,10 @@
         <v>14</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E80" s="1">
         <v>30592</v>
@@ -7973,10 +7976,10 @@
         <v>14</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E81" s="1">
         <v>56436</v>
@@ -8054,10 +8057,10 @@
         <v>14</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="1">
         <v>77931</v>
@@ -8135,10 +8138,10 @@
         <v>14</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E83" s="1">
         <v>32553</v>
@@ -8216,10 +8219,10 @@
         <v>14</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E84" s="1">
         <v>58461</v>
@@ -8297,10 +8300,10 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E85" s="1">
         <v>25057</v>
@@ -8538,7 +8541,7 @@
         <v>12</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -8618,7 +8621,7 @@
         <v>12</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -8698,7 +8701,7 @@
         <v>12</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -8778,7 +8781,7 @@
         <v>12</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -8858,7 +8861,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -8938,7 +8941,7 @@
         <v>12</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
@@ -9018,7 +9021,7 @@
         <v>12</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -9098,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
@@ -9178,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
@@ -9258,7 +9261,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -9338,7 +9341,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -9418,7 +9421,7 @@
         <v>13</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
@@ -9498,7 +9501,7 @@
         <v>13</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -9578,7 +9581,7 @@
         <v>13</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
@@ -9658,7 +9661,7 @@
         <v>13</v>
       </c>
       <c r="C102" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -9738,7 +9741,7 @@
         <v>13</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
@@ -9818,7 +9821,7 @@
         <v>13</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
@@ -9898,7 +9901,7 @@
         <v>14</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -9978,7 +9981,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
@@ -10058,7 +10061,7 @@
         <v>14</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -10138,7 +10141,7 @@
         <v>14</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
@@ -10218,7 +10221,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
@@ -10298,7 +10301,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
@@ -10378,7 +10381,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -10458,7 +10461,7 @@
         <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -10538,7 +10541,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -10621,7 +10624,7 @@
         <v>15</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E114" s="1">
         <v>78532</v>
@@ -10701,7 +10704,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E115" s="1">
         <v>53009</v>
@@ -10778,10 +10781,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E116" s="1">
         <v>69430</v>
@@ -10858,10 +10861,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E117" s="1">
         <v>77105</v>
@@ -10938,10 +10941,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E118" s="1">
         <v>30677</v>
@@ -11018,10 +11021,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E119" s="1">
         <v>64311</v>
@@ -11098,10 +11101,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E120" s="1">
         <v>46191</v>
@@ -11178,10 +11181,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E121" s="1">
         <v>58039</v>
@@ -11258,10 +11261,10 @@
         <v>12</v>
       </c>
       <c r="C122" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E122" s="1">
         <v>44196</v>
@@ -11338,10 +11341,10 @@
         <v>12</v>
       </c>
       <c r="C123" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E123" s="1">
         <v>59943</v>
@@ -11418,10 +11421,10 @@
         <v>12</v>
       </c>
       <c r="C124" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E124" s="1">
         <v>50743</v>
@@ -11498,10 +11501,10 @@
         <v>12</v>
       </c>
       <c r="C125" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E125" s="1">
         <v>78060</v>
@@ -11578,10 +11581,10 @@
         <v>13</v>
       </c>
       <c r="C126" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1">
         <v>59598</v>
@@ -11658,10 +11661,10 @@
         <v>13</v>
       </c>
       <c r="C127" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E127" s="1">
         <v>50604</v>
@@ -11738,10 +11741,10 @@
         <v>13</v>
       </c>
       <c r="C128" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E128" s="1">
         <v>54349</v>
@@ -11818,10 +11821,10 @@
         <v>13</v>
       </c>
       <c r="C129" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E129" s="1">
         <v>42766</v>
@@ -11898,10 +11901,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E130" s="1">
         <v>55334</v>
@@ -11978,10 +11981,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E131" s="1">
         <v>39344</v>
@@ -12058,10 +12061,10 @@
         <v>13</v>
       </c>
       <c r="C132" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E132" s="1">
         <v>56163</v>
@@ -12138,10 +12141,10 @@
         <v>14</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E133" s="1">
         <v>33309</v>
@@ -12218,10 +12221,10 @@
         <v>14</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E134" s="1">
         <v>18462</v>
@@ -12298,10 +12301,10 @@
         <v>14</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E135" s="1">
         <v>41684</v>
@@ -12378,10 +12381,10 @@
         <v>14</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E136" s="1">
         <v>20880</v>
@@ -12458,10 +12461,10 @@
         <v>14</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E137" s="1">
         <v>51706</v>
@@ -12538,10 +12541,10 @@
         <v>14</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E138" s="1">
         <v>64635</v>
@@ -12618,10 +12621,10 @@
         <v>14</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E139" s="1">
         <v>30707</v>
@@ -12698,10 +12701,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E140" s="1">
         <v>53133</v>
@@ -12778,10 +12781,10 @@
         <v>14</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E141" s="1">
         <v>26031</v>
@@ -12861,7 +12864,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E142" s="1">
         <v>68394</v>
@@ -12941,7 +12944,7 @@
         <v>16</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E143" s="1">
         <v>48571</v>
@@ -13018,10 +13021,10 @@
         <v>12</v>
       </c>
       <c r="C144" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E144" s="1">
         <v>56820</v>
@@ -13098,10 +13101,10 @@
         <v>12</v>
       </c>
       <c r="C145" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E145" s="1">
         <v>72602</v>
@@ -13178,10 +13181,10 @@
         <v>12</v>
       </c>
       <c r="C146" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E146" s="1">
         <v>20088</v>
@@ -13258,10 +13261,10 @@
         <v>12</v>
       </c>
       <c r="C147" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E147" s="1">
         <v>51033</v>
@@ -13338,10 +13341,10 @@
         <v>12</v>
       </c>
       <c r="C148" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E148" s="1">
         <v>34712</v>
@@ -13418,10 +13421,10 @@
         <v>12</v>
       </c>
       <c r="C149" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E149" s="1">
         <v>44034</v>
@@ -13498,10 +13501,10 @@
         <v>12</v>
       </c>
       <c r="C150" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E150" s="1">
         <v>56358</v>
@@ -13578,10 +13581,10 @@
         <v>12</v>
       </c>
       <c r="C151" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E151" s="1">
         <v>48086</v>
@@ -13658,10 +13661,10 @@
         <v>12</v>
       </c>
       <c r="C152" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E152" s="1">
         <v>50490</v>
@@ -13738,10 +13741,10 @@
         <v>12</v>
       </c>
       <c r="C153" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E153" s="1">
         <v>72569</v>
@@ -13818,10 +13821,10 @@
         <v>13</v>
       </c>
       <c r="C154" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E154" s="1">
         <v>46017</v>
@@ -13898,10 +13901,10 @@
         <v>13</v>
       </c>
       <c r="C155" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E155" s="1">
         <v>39913</v>
@@ -13978,10 +13981,10 @@
         <v>13</v>
       </c>
       <c r="C156" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E156" s="1">
         <v>49735</v>
@@ -14058,10 +14061,10 @@
         <v>13</v>
       </c>
       <c r="C157" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E157" s="1">
         <v>46563</v>
@@ -14138,10 +14141,10 @@
         <v>13</v>
       </c>
       <c r="C158" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E158" s="1">
         <v>41605</v>
@@ -14218,10 +14221,10 @@
         <v>13</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E159" s="1">
         <v>29161</v>
@@ -14298,10 +14301,10 @@
         <v>13</v>
       </c>
       <c r="C160" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E160" s="1">
         <v>52836</v>
@@ -14378,10 +14381,10 @@
         <v>14</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E161" s="1">
         <v>12933</v>
@@ -14458,10 +14461,10 @@
         <v>14</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E162" s="1">
         <v>6576</v>
@@ -14538,10 +14541,10 @@
         <v>14</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E163" s="1">
         <v>21383</v>
@@ -14618,10 +14621,10 @@
         <v>14</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E164" s="1">
         <v>9255</v>
@@ -14698,10 +14701,10 @@
         <v>14</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E165" s="1">
         <v>37295</v>
@@ -14778,10 +14781,10 @@
         <v>14</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E166" s="1">
         <v>41932</v>
@@ -14858,10 +14861,10 @@
         <v>14</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E167" s="1">
         <v>20582</v>
@@ -14938,10 +14941,10 @@
         <v>14</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E168" s="1">
         <v>23700</v>
@@ -15018,10 +15021,10 @@
         <v>14</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E169" s="1">
         <v>14168</v>
@@ -15101,7 +15104,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E170" s="1">
         <v>58708</v>
@@ -15182,7 +15185,7 @@
         <v>16</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E171" s="1">
         <v>51081</v>
@@ -15260,10 +15263,10 @@
         <v>12</v>
       </c>
       <c r="C172" s="44" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E172" s="1">
         <v>49263</v>
@@ -15341,10 +15344,10 @@
         <v>12</v>
       </c>
       <c r="C173" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E173" s="1">
         <v>62218</v>
@@ -15422,10 +15425,10 @@
         <v>12</v>
       </c>
       <c r="C174" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E174" s="1">
         <v>19467</v>
@@ -15503,10 +15506,10 @@
         <v>12</v>
       </c>
       <c r="C175" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E175" s="1">
         <v>46482</v>
@@ -15584,10 +15587,10 @@
         <v>12</v>
       </c>
       <c r="C176" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E176" s="1">
         <v>33373</v>
@@ -15665,10 +15668,10 @@
         <v>12</v>
       </c>
       <c r="C177" s="44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E177" s="1">
         <v>43282</v>
@@ -15746,10 +15749,10 @@
         <v>12</v>
       </c>
       <c r="C178" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E178" s="1">
         <v>39805</v>
@@ -15827,10 +15830,10 @@
         <v>12</v>
       </c>
       <c r="C179" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E179" s="1">
         <v>41153</v>
@@ -15908,10 +15911,10 @@
         <v>12</v>
       </c>
       <c r="C180" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E180" s="1">
         <v>43143</v>
@@ -15989,10 +15992,10 @@
         <v>12</v>
       </c>
       <c r="C181" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E181" s="1">
         <v>0</v>
@@ -16070,10 +16073,10 @@
         <v>13</v>
       </c>
       <c r="C182" s="44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E182" s="1">
         <v>43506</v>
@@ -16151,10 +16154,10 @@
         <v>13</v>
       </c>
       <c r="C183" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E183" s="1">
         <v>41496</v>
@@ -16232,10 +16235,10 @@
         <v>13</v>
       </c>
       <c r="C184" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E184" s="1">
         <v>59145</v>
@@ -16313,10 +16316,10 @@
         <v>13</v>
       </c>
       <c r="C185" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E185" s="1">
         <v>22024</v>
@@ -16394,10 +16397,10 @@
         <v>13</v>
       </c>
       <c r="C186" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E186" s="1">
         <v>51341</v>
@@ -16475,10 +16478,10 @@
         <v>13</v>
       </c>
       <c r="C187" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E187" s="1">
         <v>44726</v>
@@ -16556,10 +16559,10 @@
         <v>13</v>
       </c>
       <c r="C188" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E188" s="1">
         <v>25742</v>
@@ -16637,10 +16640,10 @@
         <v>14</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E189" s="1">
         <v>17526</v>
@@ -16718,10 +16721,10 @@
         <v>14</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E190" s="1">
         <v>27892</v>
@@ -16799,10 +16802,10 @@
         <v>14</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E191" s="1">
         <v>38718</v>
@@ -16880,10 +16883,10 @@
         <v>14</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E192" s="1">
         <v>31088</v>
@@ -16961,10 +16964,10 @@
         <v>14</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E193" s="1">
         <v>34816</v>
@@ -17042,10 +17045,10 @@
         <v>14</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E194" s="1">
         <v>47651</v>
@@ -17123,10 +17126,10 @@
         <v>14</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E195" s="1">
         <v>16319</v>
@@ -17204,10 +17207,10 @@
         <v>14</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E196" s="1">
         <v>26941</v>
@@ -17285,10 +17288,10 @@
         <v>14</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E197" s="1">
         <v>25149</v>
@@ -17359,6 +17362,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z197" xr:uid="{4D0C01DD-33B1-45F8-83DF-8BCC064C4549}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -17389,34 +17393,34 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="60"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
       <c r="M4" s="60"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -17425,20 +17429,20 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="60"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="55"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -17447,8 +17451,8 @@
       <c r="L6" s="8"/>
       <c r="M6" s="60"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -17465,10 +17469,10 @@
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="67"/>
+      <c r="L8" s="54"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="69"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -17482,29 +17486,29 @@
       <c r="I9" s="12"/>
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="68"/>
+      <c r="L9" s="55"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="70"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -18505,7 +18509,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
-      <c r="R79" s="72"/>
+      <c r="R79" s="59"/>
       <c r="S79" s="22"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
@@ -18519,7 +18523,7 @@
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
-      <c r="R80" s="72"/>
+      <c r="R80" s="59"/>
       <c r="S80" s="24"/>
     </row>
     <row r="81" spans="5:32" x14ac:dyDescent="0.25">
@@ -18936,7 +18940,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="15"/>
       <c r="P98" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q98" s="15">
         <v>17526</v>
@@ -18995,7 +18999,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="15"/>
       <c r="P99" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q99" s="15">
         <v>27892</v>
@@ -19052,7 +19056,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="15"/>
       <c r="P100" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q100" s="15">
         <v>38718</v>
@@ -19106,7 +19110,7 @@
       <c r="J101" s="15"/>
       <c r="O101" s="15"/>
       <c r="P101" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q101" s="15">
         <v>31088</v>
@@ -19158,7 +19162,7 @@
       <c r="E102" s="15"/>
       <c r="O102" s="15"/>
       <c r="P102" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q102" s="15">
         <v>34816</v>
@@ -19210,7 +19214,7 @@
       <c r="E103" s="15"/>
       <c r="O103" s="15"/>
       <c r="P103" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q103" s="15">
         <v>47651</v>
@@ -19262,7 +19266,7 @@
       <c r="E104" s="15"/>
       <c r="O104" s="15"/>
       <c r="P104" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q104" s="15">
         <v>16319</v>
@@ -19315,7 +19319,7 @@
       <c r="J105" s="16"/>
       <c r="O105" s="15"/>
       <c r="P105" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q105" s="15">
         <v>26941</v>
@@ -19366,7 +19370,7 @@
     <row r="106" spans="5:34" x14ac:dyDescent="0.25">
       <c r="O106" s="15"/>
       <c r="P106" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q106" s="15">
         <v>25149</v>
@@ -19868,23 +19872,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="A3:B6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="A3:B6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R79:R80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/logElecciones.xlsx
+++ b/doc/logElecciones.xlsx
@@ -694,6 +694,45 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,45 +750,6 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17393,34 +17393,34 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
       <c r="M4" s="60"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -17429,20 +17429,20 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="60"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -17451,8 +17451,8 @@
       <c r="L6" s="8"/>
       <c r="M6" s="60"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -17469,10 +17469,10 @@
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="54"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="56"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="69"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -17486,29 +17486,29 @@
       <c r="I9" s="12"/>
       <c r="J9" s="9"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="55"/>
+      <c r="L9" s="68"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="57"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="70"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
@@ -18509,7 +18509,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
       <c r="Q79" s="21"/>
-      <c r="R79" s="59"/>
+      <c r="R79" s="72"/>
       <c r="S79" s="22"/>
     </row>
     <row r="80" spans="2:20" x14ac:dyDescent="0.25">
@@ -18523,7 +18523,7 @@
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
-      <c r="R80" s="59"/>
+      <c r="R80" s="72"/>
       <c r="S80" s="24"/>
     </row>
     <row r="81" spans="5:32" x14ac:dyDescent="0.25">
@@ -19872,23 +19872,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="A3:B6"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="R79:R80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
